--- a/python343/wechatDemo/messages.xlsx
+++ b/python343/wechatDemo/messages.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\fan.yang\githublocal\python\python\python343\wechatdemo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\71522\Desktop\gtihubLocal\Python\python343\wechatDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF35DB6-E11E-4C4A-A3E7-46291D354A8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BCBEE1-45F1-4544-B9D4-B41974D4710C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="15285" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14310" yWindow="915" windowWidth="13425" windowHeight="13950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="58">
   <si>
     <t>对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +109,109 @@
   </si>
   <si>
     <t>丁烨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToDo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件传输助手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李承红</t>
+  </si>
+  <si>
+    <t>金丽娟</t>
+  </si>
+  <si>
+    <t>徐俊瑶</t>
+  </si>
+  <si>
+    <t>李晓宏</t>
+  </si>
+  <si>
+    <t>唐凤涛</t>
+  </si>
+  <si>
+    <t>章志鹏</t>
+  </si>
+  <si>
+    <t>刘礼</t>
+  </si>
+  <si>
+    <t>张晓霞</t>
+  </si>
+  <si>
+    <t>刘国华</t>
+  </si>
+  <si>
+    <t>张益苗</t>
+  </si>
+  <si>
+    <t>叶劲</t>
+  </si>
+  <si>
+    <t>程新</t>
+  </si>
+  <si>
+    <t>蒋艳霞</t>
+  </si>
+  <si>
+    <t>刘华</t>
+  </si>
+  <si>
+    <t>吴京红</t>
+  </si>
+  <si>
+    <t>程旦亮</t>
+  </si>
+  <si>
+    <t>陈林</t>
+  </si>
+  <si>
+    <t>何智能</t>
+  </si>
+  <si>
+    <t>叶表良</t>
+  </si>
+  <si>
+    <t>吴礼庆</t>
+  </si>
+  <si>
+    <t>李智耕</t>
+  </si>
+  <si>
+    <t>李树亮</t>
+  </si>
+  <si>
+    <t>章凯</t>
+  </si>
+  <si>
+    <t>祝小雯</t>
+  </si>
+  <si>
+    <t>赵刚</t>
+  </si>
+  <si>
+    <t>杨利</t>
+  </si>
+  <si>
+    <t>李力</t>
+  </si>
+  <si>
+    <t>陈一新</t>
+  </si>
+  <si>
+    <t>马芳</t>
+  </si>
+  <si>
+    <t>好友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨帆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,7 +219,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +229,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -151,9 +264,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -434,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1060,9 +1176,543 @@
         <v>44217.716620370367</v>
       </c>
     </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49">
+        <v>32</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="1">
+        <v>44223.529733796298</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="1">
+        <v>44223.530405092592</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="1">
+        <v>44223.530451388891</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="1">
+        <v>44223.530486111114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="1">
+        <v>44223.53052083333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="1">
+        <v>44223.530555555553</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="1">
+        <v>44223.530590277776</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="1">
+        <v>44223.530624999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="1">
+        <v>44223.530659722222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="1">
+        <v>44223.530706018515</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="1">
+        <v>44223.530740740738</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="1">
+        <v>44223.530775462961</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="1">
+        <v>44223.530810185184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62">
+        <v>13</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="1">
+        <v>44223.530844907407</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63">
+        <v>14</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="1">
+        <v>44223.53087962963</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="1">
+        <v>44223.530914351853</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65">
+        <v>16</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="1">
+        <v>44223.530960648146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66">
+        <v>17</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="1">
+        <v>44223.530995370369</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67">
+        <v>18</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="1">
+        <v>44223.535960648151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68">
+        <v>19</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="1">
+        <v>44223.535995370374</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69">
+        <v>20</v>
+      </c>
+      <c r="C69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="1">
+        <v>44223.536851851852</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70">
+        <v>21</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="1">
+        <v>44223.536886574075</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE53D325-97BF-4819-901E-CBF62A4C0F19}">
+  <dimension ref="A1:A42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/python343/wechatDemo/messages.xlsx
+++ b/python343/wechatDemo/messages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\71522\Desktop\gtihubLocal\Python\python343\wechatDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BCBEE1-45F1-4544-B9D4-B41974D4710C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07101DC4-F90B-4866-B00E-495145F0BDEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14310" yWindow="915" windowWidth="13425" windowHeight="13950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14310" yWindow="915" windowWidth="13425" windowHeight="13950" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,10 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ToDo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文件传输助手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -212,6 +208,10 @@
   </si>
   <si>
     <t>杨帆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,7 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B49">
         <v>32</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53">
         <v>4</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B55">
         <v>6</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B57">
         <v>8</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B58">
         <v>9</v>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B60">
         <v>11</v>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B62">
         <v>13</v>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B64">
         <v>15</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B66">
         <v>17</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B67">
         <v>18</v>
@@ -1458,30 +1458,30 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B69">
         <v>20</v>
       </c>
       <c r="C69" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="D69" s="1">
-        <v>44223.536851851852</v>
+        <v>44223.537280092591</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B70">
         <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="D70" s="1">
-        <v>44223.536886574075</v>
+        <v>44223.537303240744</v>
       </c>
     </row>
   </sheetData>
@@ -1495,7 +1495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE53D325-97BF-4819-901E-CBF62A4C0F19}">
   <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
@@ -1503,12 +1503,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -1523,12 +1523,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -1538,7 +1538,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -1548,17 +1548,17 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -1568,12 +1568,12 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -1583,22 +1583,22 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
@@ -1608,47 +1608,47 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
@@ -1668,17 +1668,17 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
@@ -1688,12 +1688,12 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
@@ -1703,12 +1703,12 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
